--- a/Data Files/storefree3.xlsx
+++ b/Data Files/storefree3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\Documents\Socialhead\Automation\Katalon project\CreateStoreFinal\CreateStore\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\Documents\Socialhead\Automation\Katalon project\Final githuba\AR-Project-Basic\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{BC3863AC-B70F-457A-8DC5-47EE46CBE816}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2C899B0D-AD04-4B3B-AE2B-12BEE80D833C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>partner_email</t>
   </si>
@@ -40,9 +40,6 @@
     <t>theme_file_local</t>
   </si>
   <si>
-    <t>huynh@firegroup.io</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>testcase_status</t>
   </si>
   <si>
-    <t>aFIq2JAxbLdIICk85ZHRFA==</t>
-  </si>
-  <si>
     <t>huynh-ar-uat-6001</t>
   </si>
   <si>
@@ -136,13 +130,13 @@
     <t>theme_install_type</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>huynh+1@fireapps.vn</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7E9D21-DA19-46BF-8007-BF235779D9CE}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1042,22 +1036,22 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1065,28 +1059,28 @@
         <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1097,28 +1091,28 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1129,28 +1123,28 @@
         <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1161,28 +1155,28 @@
         <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1193,28 +1187,28 @@
         <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1225,28 +1219,28 @@
         <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1257,28 +1251,28 @@
         <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1289,28 +1283,28 @@
         <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1321,28 +1315,28 @@
         <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1353,28 +1347,28 @@
         <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1385,28 +1379,28 @@
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1417,28 +1411,28 @@
         <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1449,28 +1443,28 @@
         <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -1481,28 +1475,28 @@
         <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -1513,28 +1507,28 @@
         <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -1545,28 +1539,28 @@
         <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -1577,28 +1571,28 @@
         <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1609,28 +1603,28 @@
         <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -1641,28 +1635,28 @@
         <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20">
         <v>2</v>
